--- a/wzrv/expdata/2000.xlsx
+++ b/wzrv/expdata/2000.xlsx
@@ -83,7 +83,7 @@
     <t>target</t>
   </si>
   <si>
-    <t xml:space="preserve">D0(e) </t>
+    <t>D0(e)</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/wzrv/expdata/2000.xlsx
+++ b/wzrv/expdata/2000.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\wzrv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62682460-5EB8-D74D-BF87-8E20CC9CF1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -24,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="30">
   <si>
     <t>cms</t>
   </si>
@@ -56,9 +66,6 @@
     <t>stat_u</t>
   </si>
   <si>
-    <t>syst_u</t>
-  </si>
-  <si>
     <t>obs</t>
   </si>
   <si>
@@ -84,13 +91,46 @@
   </si>
   <si>
     <t>D0(e)</t>
+  </si>
+  <si>
+    <t>syst0_c</t>
+  </si>
+  <si>
+    <t>syst1_c</t>
+  </si>
+  <si>
+    <t>syst2_c</t>
+  </si>
+  <si>
+    <t>syst3_c</t>
+  </si>
+  <si>
+    <t>syst4_c</t>
+  </si>
+  <si>
+    <t>syst5_c</t>
+  </si>
+  <si>
+    <t>syst6_c</t>
+  </si>
+  <si>
+    <t>syst7_c</t>
+  </si>
+  <si>
+    <t>syst8_c</t>
+  </si>
+  <si>
+    <t>syst9_c</t>
+  </si>
+  <si>
+    <t>syst_tot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -102,6 +142,11 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -126,13 +171,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,24 +461,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="16" width="10.875" style="1" customWidth="1"/>
+    <col min="3" max="16" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -442,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -466,21 +514,51 @@
         <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
+      <c r="Q1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>1960</v>
@@ -498,7 +576,7 @@
         <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1">
         <v>2.1</v>
@@ -522,18 +600,48 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>15</v>
+      <c r="Q2">
+        <v>5.9999999999999988E-5</v>
+      </c>
+      <c r="R2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="S2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="T2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="U2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="V2">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="W2">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="X2">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="Y2">
+        <v>8.1999999999999998E-4</v>
+      </c>
+      <c r="Z2">
+        <v>1.08E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>1960</v>
@@ -551,7 +659,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1">
         <v>5.23</v>
@@ -575,18 +683,48 @@
         <v>1.4000000000000002E-3</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>15</v>
+      <c r="Q3">
+        <v>5.9999999999999988E-5</v>
+      </c>
+      <c r="R3">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="S3">
+        <v>1E-4</v>
+      </c>
+      <c r="T3">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="U3">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="V3">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="W3">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="X3">
+        <v>5.6000000000000006E-4</v>
+      </c>
+      <c r="Y3">
+        <v>8.1000000000000006E-4</v>
+      </c>
+      <c r="Z3">
+        <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>1960</v>
@@ -604,7 +742,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1">
         <v>9.16</v>
@@ -628,18 +766,48 @@
         <v>1.8E-3</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>15</v>
+      <c r="Q4">
+        <v>1.2E-4</v>
+      </c>
+      <c r="R4">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="S4">
+        <v>2.7E-4</v>
+      </c>
+      <c r="T4">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="U4">
+        <v>3.5E-4</v>
+      </c>
+      <c r="V4">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="W4">
+        <v>8.7000000000000001E-4</v>
+      </c>
+      <c r="X4">
+        <v>5.8999999999999992E-4</v>
+      </c>
+      <c r="Y4">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="Z4">
+        <v>1.7899999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>1960</v>
@@ -657,7 +825,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="1">
         <v>11.97</v>
@@ -681,18 +849,48 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="O5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>15</v>
+      <c r="Q5">
+        <v>7.0000000000000007E-5</v>
+      </c>
+      <c r="R5">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="S5">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="T5">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="U5">
+        <v>4.8999999999999998E-4</v>
+      </c>
+      <c r="V5">
+        <v>1.32E-3</v>
+      </c>
+      <c r="W5">
+        <v>1.81E-3</v>
+      </c>
+      <c r="X5">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="Y5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="Z5">
+        <v>2.5500000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>1960</v>
@@ -710,7 +908,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="1">
         <v>14.52</v>
@@ -734,18 +932,48 @@
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="O6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>15</v>
+      <c r="Q6">
+        <v>1.2E-4</v>
+      </c>
+      <c r="R6">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="S6">
+        <v>1.2E-4</v>
+      </c>
+      <c r="T6">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="U6">
+        <v>5.2999999999999998E-4</v>
+      </c>
+      <c r="V6">
+        <v>1.72E-3</v>
+      </c>
+      <c r="W6">
+        <v>2.3700000000000001E-3</v>
+      </c>
+      <c r="X6">
+        <v>7.6000000000000004E-4</v>
+      </c>
+      <c r="Y6">
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="Z6">
+        <v>3.2299999999999998E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>1960</v>
@@ -763,7 +991,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1">
         <v>15.59</v>
@@ -787,18 +1015,48 @@
         <v>4.0999999999999995E-3</v>
       </c>
       <c r="O7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>15</v>
+      <c r="Q7">
+        <v>8.9999999999999992E-5</v>
+      </c>
+      <c r="R7">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="S7">
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="T7">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="U7">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="V7">
+        <v>2.4199999999999998E-3</v>
+      </c>
+      <c r="W7">
+        <v>2.7100000000000002E-3</v>
+      </c>
+      <c r="X7">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="Y7">
+        <v>1.17E-3</v>
+      </c>
+      <c r="Z7">
+        <v>4.0999999999999986E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>1960</v>
@@ -816,7 +1074,7 @@
         <v>25</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="1">
         <v>15.37</v>
@@ -840,18 +1098,48 @@
         <v>6.0999999999999995E-3</v>
       </c>
       <c r="O8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>15</v>
+      <c r="Q8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="R8">
+        <v>4.2000000000000002E-4</v>
+      </c>
+      <c r="S8">
+        <v>6.4000000000000005E-4</v>
+      </c>
+      <c r="T8">
+        <v>3.8999999999999999E-4</v>
+      </c>
+      <c r="U8">
+        <v>5.8E-4</v>
+      </c>
+      <c r="V8">
+        <v>4.0999999999999986E-3</v>
+      </c>
+      <c r="W8">
+        <v>3.9399999999999999E-3</v>
+      </c>
+      <c r="X8">
+        <v>1.67E-3</v>
+      </c>
+      <c r="Y8">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="Z8">
+        <v>6.11E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>1960</v>
@@ -869,7 +1157,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="1">
         <v>11.05</v>
@@ -893,18 +1181,48 @@
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="O9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>15</v>
+      <c r="Q9">
+        <v>1.1E-4</v>
+      </c>
+      <c r="R9">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="S9">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="T9">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="U9">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="V9">
+        <v>4.2599999999999999E-3</v>
+      </c>
+      <c r="W9">
+        <v>1.3699999999999999E-3</v>
+      </c>
+      <c r="X9">
+        <v>1.5299999999999999E-3</v>
+      </c>
+      <c r="Y9">
+        <v>9.5E-4</v>
+      </c>
+      <c r="Z9">
+        <v>4.8499999999999993E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>1960</v>
@@ -922,7 +1240,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="1">
         <v>6.66</v>
@@ -946,18 +1264,48 @@
         <v>5.3E-3</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>15</v>
+      <c r="Q10">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="R10">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="S10">
+        <v>1.07E-3</v>
+      </c>
+      <c r="T10">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="U10">
+        <v>1E-4</v>
+      </c>
+      <c r="V10">
+        <v>4.2100000000000002E-3</v>
+      </c>
+      <c r="W10">
+        <v>1.4300000000000001E-3</v>
+      </c>
+      <c r="X10">
+        <v>2.4599999999999999E-3</v>
+      </c>
+      <c r="Y10">
+        <v>1.1299999999999999E-3</v>
+      </c>
+      <c r="Z10">
+        <v>5.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1">
         <v>1960</v>
@@ -975,7 +1323,7 @@
         <v>25</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="1">
         <v>-1.55</v>
@@ -999,18 +1347,48 @@
         <v>6.0999999999999995E-3</v>
       </c>
       <c r="O11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>15</v>
+      <c r="Q11">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="R11">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="S11">
+        <v>1.3799999999999999E-3</v>
+      </c>
+      <c r="T11">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="U11">
+        <v>7.0000000000000007E-5</v>
+      </c>
+      <c r="V11">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="W11">
+        <v>1.75E-3</v>
+      </c>
+      <c r="X11">
+        <v>4.3699999999999998E-3</v>
+      </c>
+      <c r="Y11">
+        <v>1.47E-3</v>
+      </c>
+      <c r="Z11">
+        <v>6.1399999999999996E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
         <v>1960</v>
@@ -1028,7 +1406,7 @@
         <v>25</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="1">
         <v>-9.9700000000000006</v>
@@ -1052,18 +1430,48 @@
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="O12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>15</v>
+      <c r="Q12">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="R12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="S12">
+        <v>2.7799999999999999E-3</v>
+      </c>
+      <c r="T12">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="U12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="V12">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="W12">
+        <v>1.5399999999999999E-3</v>
+      </c>
+      <c r="X12">
+        <v>7.1500000000000001E-3</v>
+      </c>
+      <c r="Y12">
+        <v>1.9300000000000001E-3</v>
+      </c>
+      <c r="Z12">
+        <v>8.7600000000000004E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <v>1960</v>
@@ -1081,7 +1489,7 @@
         <v>25</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="1">
         <v>-19.100000000000001</v>
@@ -1105,18 +1513,48 @@
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="O13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>15</v>
+      <c r="Q13">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="R13">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="S13">
+        <v>5.5399999999999998E-3</v>
+      </c>
+      <c r="T13">
+        <v>2.9E-4</v>
+      </c>
+      <c r="U13">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="V13">
+        <v>4.2399999999999998E-3</v>
+      </c>
+      <c r="W13">
+        <v>2.16E-3</v>
+      </c>
+      <c r="X13">
+        <v>8.6499999999999997E-3</v>
+      </c>
+      <c r="Y13">
+        <v>2.3600000000000001E-3</v>
+      </c>
+      <c r="Z13">
+        <v>1.1599999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
         <v>1960</v>
@@ -1134,7 +1572,7 @@
         <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="1">
         <v>-39.97</v>
@@ -1158,13 +1596,43 @@
         <v>2.23E-2</v>
       </c>
       <c r="O14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>15</v>
+      <c r="Q14">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="R14">
+        <v>8.7000000000000001E-4</v>
+      </c>
+      <c r="S14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="T14">
+        <v>8.1000000000000006E-4</v>
+      </c>
+      <c r="U14">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="V14">
+        <v>3.48E-3</v>
+      </c>
+      <c r="W14">
+        <v>3.9899999999999996E-3</v>
+      </c>
+      <c r="X14">
+        <v>1.89E-2</v>
+      </c>
+      <c r="Y14">
+        <v>5.4799999999999996E-3</v>
+      </c>
+      <c r="Z14">
+        <v>2.23E-2</v>
       </c>
     </row>
-    <row r="23" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M23" s="2"/>
     </row>
   </sheetData>

--- a/wzrv/expdata/2000.xlsx
+++ b/wzrv/expdata/2000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62682460-5EB8-D74D-BF87-8E20CC9CF1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DD07DA-1DA5-1045-AFF1-310E18DF6E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="29">
   <si>
     <t>cms</t>
   </si>
@@ -96,12 +96,6 @@
     <t>syst0_c</t>
   </si>
   <si>
-    <t>syst1_c</t>
-  </si>
-  <si>
-    <t>syst2_c</t>
-  </si>
-  <si>
     <t>syst3_c</t>
   </si>
   <si>
@@ -114,16 +108,19 @@
     <t>syst6_c</t>
   </si>
   <si>
-    <t>syst7_c</t>
-  </si>
-  <si>
     <t>syst8_c</t>
   </si>
   <si>
-    <t>syst9_c</t>
-  </si>
-  <si>
     <t>syst_tot</t>
+  </si>
+  <si>
+    <t>syst1_u</t>
+  </si>
+  <si>
+    <t>syst2_u</t>
+  </si>
+  <si>
+    <t>syst7_u</t>
   </si>
 </sst>
 </file>
@@ -462,18 +459,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="16" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="15" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -514,46 +511,43 @@
         <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="P1" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q1" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -595,48 +589,44 @@
         <f t="shared" ref="M2:M14" si="1">J2/100</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="N2" s="1">
-        <f t="shared" ref="N2:N14" si="2">K2/100</f>
-        <v>1.1000000000000001E-3</v>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P2">
+        <v>5.9999999999999988E-5</v>
+      </c>
       <c r="Q2">
-        <v>5.9999999999999988E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="R2">
-        <v>2.0000000000000002E-5</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="S2">
-        <v>2.0000000000000001E-4</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="T2">
-        <v>3.0000000000000001E-5</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="U2">
-        <v>4.0000000000000003E-5</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="V2">
-        <v>2.7999999999999998E-4</v>
+        <v>2.5999999999999998E-4</v>
       </c>
       <c r="W2">
-        <v>2.5999999999999998E-4</v>
+        <v>5.4000000000000001E-4</v>
       </c>
       <c r="X2">
-        <v>5.4000000000000001E-4</v>
+        <v>8.1999999999999998E-4</v>
       </c>
       <c r="Y2">
-        <v>8.1999999999999998E-4</v>
-      </c>
-      <c r="Z2">
         <v>1.08E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -678,48 +668,44 @@
         <f t="shared" si="1"/>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="N3" s="1">
-        <f t="shared" si="2"/>
-        <v>1.4000000000000002E-3</v>
+      <c r="N3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P3">
+        <v>5.9999999999999988E-5</v>
+      </c>
       <c r="Q3">
-        <v>5.9999999999999988E-5</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="R3">
+        <v>1E-4</v>
+      </c>
+      <c r="S3">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="S3">
-        <v>1E-4</v>
-      </c>
       <c r="T3">
-        <v>1.8000000000000001E-4</v>
+        <v>2.5999999999999998E-4</v>
       </c>
       <c r="U3">
-        <v>2.5999999999999998E-4</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="V3">
-        <v>7.5000000000000002E-4</v>
+        <v>5.4000000000000001E-4</v>
       </c>
       <c r="W3">
-        <v>5.4000000000000001E-4</v>
+        <v>5.6000000000000006E-4</v>
       </c>
       <c r="X3">
-        <v>5.6000000000000006E-4</v>
+        <v>8.1000000000000006E-4</v>
       </c>
       <c r="Y3">
-        <v>8.1000000000000006E-4</v>
-      </c>
-      <c r="Z3">
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -761,48 +747,44 @@
         <f t="shared" si="1"/>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="N4" s="1">
-        <f t="shared" si="2"/>
-        <v>1.8E-3</v>
+      <c r="N4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P4">
+        <v>1.2E-4</v>
+      </c>
       <c r="Q4">
-        <v>1.2E-4</v>
+        <v>2.4000000000000001E-4</v>
       </c>
       <c r="R4">
-        <v>2.4000000000000001E-4</v>
+        <v>2.7E-4</v>
       </c>
       <c r="S4">
-        <v>2.7E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="T4">
-        <v>2.5000000000000001E-4</v>
+        <v>3.5E-4</v>
       </c>
       <c r="U4">
-        <v>3.5E-4</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="V4">
-        <v>1.0499999999999999E-3</v>
+        <v>8.7000000000000001E-4</v>
       </c>
       <c r="W4">
-        <v>8.7000000000000001E-4</v>
+        <v>5.8999999999999992E-4</v>
       </c>
       <c r="X4">
-        <v>5.8999999999999992E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="Y4">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="Z4">
         <v>1.7899999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -844,48 +826,44 @@
         <f t="shared" si="1"/>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="N5" s="1">
-        <f t="shared" si="2"/>
-        <v>2.5000000000000001E-3</v>
+      <c r="N5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P5">
+        <v>7.0000000000000007E-5</v>
+      </c>
       <c r="Q5">
-        <v>7.0000000000000007E-5</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="R5">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="S5">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="S5">
-        <v>4.0000000000000003E-5</v>
-      </c>
       <c r="T5">
-        <v>3.4000000000000002E-4</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="U5">
-        <v>4.8999999999999998E-4</v>
+        <v>1.32E-3</v>
       </c>
       <c r="V5">
-        <v>1.32E-3</v>
+        <v>1.81E-3</v>
       </c>
       <c r="W5">
-        <v>1.81E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="X5">
-        <v>5.9999999999999995E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="Y5">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="Z5">
         <v>2.5500000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -927,48 +905,44 @@
         <f t="shared" si="1"/>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="N6" s="1">
-        <f t="shared" si="2"/>
-        <v>3.2000000000000002E-3</v>
+      <c r="N6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P6">
+        <v>1.2E-4</v>
+      </c>
       <c r="Q6">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="R6">
         <v>1.2E-4</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="S6">
-        <v>1.2E-4</v>
-      </c>
       <c r="T6">
-        <v>3.6000000000000002E-4</v>
+        <v>5.2999999999999998E-4</v>
       </c>
       <c r="U6">
-        <v>5.2999999999999998E-4</v>
+        <v>1.72E-3</v>
       </c>
       <c r="V6">
-        <v>1.72E-3</v>
+        <v>2.3700000000000001E-3</v>
       </c>
       <c r="W6">
-        <v>2.3700000000000001E-3</v>
+        <v>7.6000000000000004E-4</v>
       </c>
       <c r="X6">
-        <v>7.6000000000000004E-4</v>
+        <v>8.4999999999999995E-4</v>
       </c>
       <c r="Y6">
-        <v>8.4999999999999995E-4</v>
-      </c>
-      <c r="Z6">
         <v>3.2299999999999998E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1010,48 +984,44 @@
         <f t="shared" si="1"/>
         <v>1.8E-3</v>
       </c>
-      <c r="N7" s="1">
-        <f t="shared" si="2"/>
-        <v>4.0999999999999995E-3</v>
+      <c r="N7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P7">
+        <v>8.9999999999999992E-5</v>
+      </c>
       <c r="Q7">
-        <v>8.9999999999999992E-5</v>
+        <v>3.6999999999999999E-4</v>
       </c>
       <c r="R7">
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="S7">
         <v>3.6999999999999999E-4</v>
       </c>
-      <c r="S7">
-        <v>4.6999999999999999E-4</v>
-      </c>
       <c r="T7">
-        <v>3.6999999999999999E-4</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="U7">
-        <v>5.5000000000000003E-4</v>
+        <v>2.4199999999999998E-3</v>
       </c>
       <c r="V7">
-        <v>2.4199999999999998E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="W7">
-        <v>2.7100000000000002E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="X7">
-        <v>1.1999999999999999E-3</v>
+        <v>1.17E-3</v>
       </c>
       <c r="Y7">
-        <v>1.17E-3</v>
-      </c>
-      <c r="Z7">
         <v>4.0999999999999986E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1093,48 +1063,44 @@
         <f t="shared" si="1"/>
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="N8" s="1">
-        <f t="shared" si="2"/>
-        <v>6.0999999999999995E-3</v>
+      <c r="N8" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P8">
+        <v>3.0000000000000001E-5</v>
+      </c>
       <c r="Q8">
-        <v>3.0000000000000001E-5</v>
+        <v>4.2000000000000002E-4</v>
       </c>
       <c r="R8">
-        <v>4.2000000000000002E-4</v>
+        <v>6.4000000000000005E-4</v>
       </c>
       <c r="S8">
-        <v>6.4000000000000005E-4</v>
+        <v>3.8999999999999999E-4</v>
       </c>
       <c r="T8">
-        <v>3.8999999999999999E-4</v>
+        <v>5.8E-4</v>
       </c>
       <c r="U8">
-        <v>5.8E-4</v>
+        <v>4.0999999999999986E-3</v>
       </c>
       <c r="V8">
-        <v>4.0999999999999986E-3</v>
+        <v>3.9399999999999999E-3</v>
       </c>
       <c r="W8">
-        <v>3.9399999999999999E-3</v>
+        <v>1.67E-3</v>
       </c>
       <c r="X8">
-        <v>1.67E-3</v>
+        <v>1.0399999999999999E-3</v>
       </c>
       <c r="Y8">
-        <v>1.0399999999999999E-3</v>
-      </c>
-      <c r="Z8">
         <v>6.11E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1176,48 +1142,44 @@
         <f t="shared" si="1"/>
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="N9" s="1">
-        <f t="shared" si="2"/>
-        <v>4.8999999999999998E-3</v>
+      <c r="N9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P9">
+        <v>1.1E-4</v>
+      </c>
       <c r="Q9">
-        <v>1.1E-4</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="R9">
-        <v>2.7999999999999998E-4</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="S9">
-        <v>1.8000000000000001E-4</v>
+        <v>2.2000000000000001E-4</v>
       </c>
       <c r="T9">
-        <v>2.2000000000000001E-4</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="U9">
-        <v>3.4000000000000002E-4</v>
+        <v>4.2599999999999999E-3</v>
       </c>
       <c r="V9">
-        <v>4.2599999999999999E-3</v>
+        <v>1.3699999999999999E-3</v>
       </c>
       <c r="W9">
-        <v>1.3699999999999999E-3</v>
+        <v>1.5299999999999999E-3</v>
       </c>
       <c r="X9">
-        <v>1.5299999999999999E-3</v>
+        <v>9.5E-4</v>
       </c>
       <c r="Y9">
-        <v>9.5E-4</v>
-      </c>
-      <c r="Z9">
         <v>4.8499999999999993E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1259,48 +1221,44 @@
         <f t="shared" si="1"/>
         <v>1.1899999999999999E-2</v>
       </c>
-      <c r="N10" s="1">
-        <f t="shared" si="2"/>
-        <v>5.3E-3</v>
+      <c r="N10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P10">
+        <v>3.4000000000000002E-4</v>
+      </c>
       <c r="Q10">
-        <v>3.4000000000000002E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="R10">
-        <v>3.6000000000000002E-4</v>
+        <v>1.07E-3</v>
       </c>
       <c r="S10">
-        <v>1.07E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="T10">
-        <v>5.0000000000000002E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="U10">
-        <v>1E-4</v>
+        <v>4.2100000000000002E-3</v>
       </c>
       <c r="V10">
-        <v>4.2100000000000002E-3</v>
+        <v>1.4300000000000001E-3</v>
       </c>
       <c r="W10">
-        <v>1.4300000000000001E-3</v>
+        <v>2.4599999999999999E-3</v>
       </c>
       <c r="X10">
-        <v>2.4599999999999999E-3</v>
+        <v>1.1299999999999999E-3</v>
       </c>
       <c r="Y10">
-        <v>1.1299999999999999E-3</v>
-      </c>
-      <c r="Z10">
         <v>5.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1342,48 +1300,44 @@
         <f t="shared" si="1"/>
         <v>5.3E-3</v>
       </c>
-      <c r="N11" s="1">
-        <f t="shared" si="2"/>
-        <v>6.0999999999999995E-3</v>
+      <c r="N11" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P11">
+        <v>3.6999999999999999E-4</v>
+      </c>
       <c r="Q11">
-        <v>3.6999999999999999E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="R11">
-        <v>3.6000000000000002E-4</v>
+        <v>1.3799999999999999E-3</v>
       </c>
       <c r="S11">
-        <v>1.3799999999999999E-3</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="T11">
-        <v>4.0000000000000003E-5</v>
+        <v>7.0000000000000007E-5</v>
       </c>
       <c r="U11">
-        <v>7.0000000000000007E-5</v>
+        <v>3.3300000000000001E-3</v>
       </c>
       <c r="V11">
-        <v>3.3300000000000001E-3</v>
+        <v>1.75E-3</v>
       </c>
       <c r="W11">
-        <v>1.75E-3</v>
+        <v>4.3699999999999998E-3</v>
       </c>
       <c r="X11">
-        <v>4.3699999999999998E-3</v>
+        <v>1.47E-3</v>
       </c>
       <c r="Y11">
-        <v>1.47E-3</v>
-      </c>
-      <c r="Z11">
         <v>6.1399999999999996E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1425,48 +1379,44 @@
         <f t="shared" si="1"/>
         <v>7.0999999999999995E-3</v>
       </c>
-      <c r="N12" s="1">
-        <f t="shared" si="2"/>
-        <v>8.8000000000000005E-3</v>
+      <c r="N12" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P12" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P12">
+        <v>1.9000000000000001E-4</v>
+      </c>
       <c r="Q12">
-        <v>1.9000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="R12">
-        <v>2.9999999999999997E-4</v>
+        <v>2.7799999999999999E-3</v>
       </c>
       <c r="S12">
-        <v>2.7799999999999999E-3</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="T12">
-        <v>2.0000000000000002E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="U12">
-        <v>5.0000000000000002E-5</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="V12">
-        <v>3.3999999999999998E-3</v>
+        <v>1.5399999999999999E-3</v>
       </c>
       <c r="W12">
-        <v>1.5399999999999999E-3</v>
+        <v>7.1500000000000001E-3</v>
       </c>
       <c r="X12">
-        <v>7.1500000000000001E-3</v>
+        <v>1.9300000000000001E-3</v>
       </c>
       <c r="Y12">
-        <v>1.9300000000000001E-3</v>
-      </c>
-      <c r="Z12">
         <v>8.7600000000000004E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1508,48 +1458,44 @@
         <f t="shared" si="1"/>
         <v>4.0999999999999995E-3</v>
       </c>
-      <c r="N13" s="1">
-        <f t="shared" si="2"/>
+      <c r="N13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="Q13">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="R13">
+        <v>5.5399999999999998E-3</v>
+      </c>
+      <c r="S13">
+        <v>2.9E-4</v>
+      </c>
+      <c r="T13">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="U13">
+        <v>4.2399999999999998E-3</v>
+      </c>
+      <c r="V13">
+        <v>2.16E-3</v>
+      </c>
+      <c r="W13">
+        <v>8.6499999999999997E-3</v>
+      </c>
+      <c r="X13">
+        <v>2.3600000000000001E-3</v>
+      </c>
+      <c r="Y13">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q13">
-        <v>2.1000000000000001E-4</v>
-      </c>
-      <c r="R13">
-        <v>4.2999999999999999E-4</v>
-      </c>
-      <c r="S13">
-        <v>5.5399999999999998E-3</v>
-      </c>
-      <c r="T13">
-        <v>2.9E-4</v>
-      </c>
-      <c r="U13">
-        <v>4.8000000000000001E-4</v>
-      </c>
-      <c r="V13">
-        <v>4.2399999999999998E-3</v>
-      </c>
-      <c r="W13">
-        <v>2.16E-3</v>
-      </c>
-      <c r="X13">
-        <v>8.6499999999999997E-3</v>
-      </c>
-      <c r="Y13">
-        <v>2.3600000000000001E-3</v>
-      </c>
-      <c r="Z13">
-        <v>1.1599999999999999E-2</v>
-      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1591,44 +1537,40 @@
         <f t="shared" si="1"/>
         <v>9.300000000000001E-3</v>
       </c>
-      <c r="N14" s="1">
-        <f t="shared" si="2"/>
-        <v>2.23E-2</v>
+      <c r="N14" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P14" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P14">
+        <v>5.0000000000000002E-5</v>
+      </c>
       <c r="Q14">
-        <v>5.0000000000000002E-5</v>
+        <v>8.7000000000000001E-4</v>
       </c>
       <c r="R14">
-        <v>8.7000000000000001E-4</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="S14">
-        <v>8.9999999999999993E-3</v>
+        <v>8.1000000000000006E-4</v>
       </c>
       <c r="T14">
-        <v>8.1000000000000006E-4</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="U14">
-        <v>1.2999999999999999E-3</v>
+        <v>3.48E-3</v>
       </c>
       <c r="V14">
-        <v>3.48E-3</v>
+        <v>3.9899999999999996E-3</v>
       </c>
       <c r="W14">
-        <v>3.9899999999999996E-3</v>
+        <v>1.89E-2</v>
       </c>
       <c r="X14">
-        <v>1.89E-2</v>
+        <v>5.4799999999999996E-3</v>
       </c>
       <c r="Y14">
-        <v>5.4799999999999996E-3</v>
-      </c>
-      <c r="Z14">
         <v>2.23E-2</v>
       </c>
     </row>

--- a/wzrv/expdata/2000.xlsx
+++ b/wzrv/expdata/2000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DD07DA-1DA5-1045-AFF1-310E18DF6E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAC83C4-52C7-FC41-9198-487E08E34AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/wzrv/expdata/2000.xlsx
+++ b/wzrv/expdata/2000.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAC83C4-52C7-FC41-9198-487E08E34AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FDE25E-5990-8944-9FAE-5CB83BC6A951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="30">
   <si>
     <t>cms</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>syst7_u</t>
+  </si>
+  <si>
+    <t>pt_max</t>
   </si>
 </sst>
 </file>
@@ -459,18 +462,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="15" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="16" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -493,61 +496,64 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -569,64 +575,67 @@
       <c r="G2" s="1">
         <v>25</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1">
+        <v>50</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>2.1</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>0.12</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>0.11</v>
       </c>
-      <c r="L2" s="1">
-        <f t="shared" ref="L2:L14" si="0">I2/100</f>
+      <c r="M2" s="1">
+        <f t="shared" ref="M2:M14" si="0">J2/100</f>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="M2" s="1">
-        <f t="shared" ref="M2:M14" si="1">J2/100</f>
+      <c r="N2" s="1">
+        <f t="shared" ref="N2:N14" si="1">K2/100</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>5.9999999999999988E-5</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>2.7999999999999998E-4</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>2.5999999999999998E-4</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>8.1999999999999998E-4</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1.08E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -648,64 +657,67 @@
       <c r="G3" s="1">
         <v>25</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="1">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>5.23</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>0.11</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <f t="shared" si="0"/>
         <v>5.2300000000000006E-2</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <f t="shared" si="1"/>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>5.9999999999999988E-5</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1E-4</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>2.5999999999999998E-4</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>7.5000000000000002E-4</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>5.6000000000000006E-4</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>8.1000000000000006E-4</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -727,64 +739,67 @@
       <c r="G4" s="1">
         <v>25</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="1">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>9.16</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>0.11</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>0.18</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <f t="shared" si="0"/>
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <f t="shared" si="1"/>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1.2E-4</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2.7E-4</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>3.5E-4</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1.0499999999999999E-3</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>8.7000000000000001E-4</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>5.8999999999999992E-4</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1.7899999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -806,64 +821,67 @@
       <c r="G5" s="1">
         <v>25</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="1">
+        <v>50</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>11.97</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>0.11</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>0.25</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <f t="shared" si="0"/>
         <v>0.1197</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <f t="shared" si="1"/>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>7.0000000000000007E-5</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>4.8999999999999998E-4</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1.32E-3</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>1.81E-3</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>2.5500000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -885,64 +903,67 @@
       <c r="G6" s="1">
         <v>25</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="1">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>14.52</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>0.12</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>0.32</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <f t="shared" si="0"/>
         <v>0.1452</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <f t="shared" si="1"/>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1.2E-4</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1.2E-4</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>5.2999999999999998E-4</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1.72E-3</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>2.3700000000000001E-3</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>7.6000000000000004E-4</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>8.4999999999999995E-4</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>3.2299999999999998E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -964,64 +985,67 @@
       <c r="G7" s="1">
         <v>25</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="1">
+        <v>50</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>15.59</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0.18</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>0.41</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <f t="shared" si="0"/>
         <v>0.15590000000000001</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <f t="shared" si="1"/>
         <v>1.8E-3</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>8.9999999999999992E-5</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>3.6999999999999999E-4</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>4.6999999999999999E-4</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>3.6999999999999999E-4</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>5.5000000000000003E-4</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>2.4199999999999998E-3</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>2.7100000000000002E-3</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>1.17E-3</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>4.0999999999999986E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1043,64 +1067,67 @@
       <c r="G8" s="1">
         <v>25</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="1">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>15.37</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>0.67</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>0.61</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <f t="shared" si="0"/>
         <v>0.1537</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <f t="shared" si="1"/>
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>4.2000000000000002E-4</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>6.4000000000000005E-4</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>3.8999999999999999E-4</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>5.8E-4</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>4.0999999999999986E-3</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>3.9399999999999999E-3</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>1.67E-3</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>1.0399999999999999E-3</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>6.11E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1122,64 +1149,67 @@
       <c r="G9" s="1">
         <v>25</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="1">
+        <v>50</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>11.05</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>0.31</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>0.49</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <f t="shared" si="0"/>
         <v>0.1105</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <f t="shared" si="1"/>
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1.1E-4</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>2.7999999999999998E-4</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>2.2000000000000001E-4</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>4.2599999999999999E-3</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>1.3699999999999999E-3</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>1.5299999999999999E-3</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>9.5E-4</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>4.8499999999999993E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1201,64 +1231,67 @@
       <c r="G10" s="1">
         <v>25</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="1">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>6.66</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>1.19</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>0.53</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <f t="shared" si="0"/>
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <f t="shared" si="1"/>
         <v>1.1899999999999999E-2</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1.07E-3</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1E-4</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>4.2100000000000002E-3</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>1.4300000000000001E-3</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>2.4599999999999999E-3</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>1.1299999999999999E-3</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>5.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1280,64 +1313,67 @@
       <c r="G11" s="1">
         <v>25</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="1">
+        <v>50</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>-1.55</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>0.53</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>0.61</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <f t="shared" si="0"/>
         <v>-1.55E-2</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <f t="shared" si="1"/>
         <v>5.3E-3</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>3.6999999999999999E-4</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1.3799999999999999E-3</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>7.0000000000000007E-5</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>3.3300000000000001E-3</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>1.75E-3</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>4.3699999999999998E-3</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>1.47E-3</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>6.1399999999999996E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1359,64 +1395,67 @@
       <c r="G12" s="1">
         <v>25</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="1">
+        <v>50</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>-9.9700000000000006</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>0.71</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>0.88</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <f t="shared" si="0"/>
         <v>-9.9700000000000011E-2</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <f t="shared" si="1"/>
         <v>7.0999999999999995E-3</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1.9000000000000001E-4</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>2.7799999999999999E-3</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>1.5399999999999999E-3</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>7.1500000000000001E-3</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>1.9300000000000001E-3</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>8.7600000000000004E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1438,64 +1477,67 @@
       <c r="G13" s="1">
         <v>25</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="1">
+        <v>50</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>-19.100000000000001</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>0.41</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <f t="shared" si="0"/>
         <v>-0.191</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <f t="shared" si="1"/>
         <v>4.0999999999999995E-3</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>2.1000000000000001E-4</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>4.2999999999999999E-4</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>5.5399999999999998E-3</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>2.9E-4</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>4.2399999999999998E-3</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>2.16E-3</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>8.6499999999999997E-3</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>2.3600000000000001E-3</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1517,65 +1559,68 @@
       <c r="G14" s="1">
         <v>25</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="1">
+        <v>50</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>-39.97</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>0.93</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>2.23</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <f t="shared" si="0"/>
         <v>-0.3997</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <f t="shared" si="1"/>
         <v>9.300000000000001E-3</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>8.7000000000000001E-4</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>8.1000000000000006E-4</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>3.48E-3</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>3.9899999999999996E-3</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1.89E-2</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>5.4799999999999996E-3</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="23" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M23" s="2"/>
+    <row r="23" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/wzrv/expdata/2000.xlsx
+++ b/wzrv/expdata/2000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FDE25E-5990-8944-9FAE-5CB83BC6A951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A5484D-CC43-1848-89AB-60B5786A72E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H2" sqref="H2:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,7 +576,7 @@
         <v>25</v>
       </c>
       <c r="H2" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
@@ -658,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
@@ -740,7 +740,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>12</v>
@@ -822,7 +822,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>12</v>
@@ -904,7 +904,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>12</v>
@@ -986,7 +986,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>12</v>
@@ -1068,7 +1068,7 @@
         <v>25</v>
       </c>
       <c r="H8" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>12</v>
@@ -1150,7 +1150,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>12</v>
@@ -1232,7 +1232,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>12</v>
@@ -1314,7 +1314,7 @@
         <v>25</v>
       </c>
       <c r="H11" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>12</v>
@@ -1396,7 +1396,7 @@
         <v>25</v>
       </c>
       <c r="H12" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>12</v>
@@ -1478,7 +1478,7 @@
         <v>25</v>
       </c>
       <c r="H13" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>12</v>
@@ -1560,7 +1560,7 @@
         <v>25</v>
       </c>
       <c r="H14" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>12</v>

--- a/wzrv/expdata/2000.xlsx
+++ b/wzrv/expdata/2000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A5484D-CC43-1848-89AB-60B5786A72E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C26738-3A0B-DE47-A6DD-CE10EE49FDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,7 +576,7 @@
         <v>25</v>
       </c>
       <c r="H2" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
@@ -658,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
@@ -740,7 +740,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>12</v>
@@ -822,7 +822,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>12</v>
@@ -904,7 +904,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>12</v>
@@ -986,7 +986,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>12</v>
@@ -1068,7 +1068,7 @@
         <v>25</v>
       </c>
       <c r="H8" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>12</v>
@@ -1150,7 +1150,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>12</v>
@@ -1232,7 +1232,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>12</v>
@@ -1314,7 +1314,7 @@
         <v>25</v>
       </c>
       <c r="H11" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>12</v>
@@ -1396,7 +1396,7 @@
         <v>25</v>
       </c>
       <c r="H12" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>12</v>
@@ -1478,7 +1478,7 @@
         <v>25</v>
       </c>
       <c r="H13" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>12</v>
@@ -1560,7 +1560,7 @@
         <v>25</v>
       </c>
       <c r="H14" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>12</v>

--- a/wzrv/expdata/2000.xlsx
+++ b/wzrv/expdata/2000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C26738-3A0B-DE47-A6DD-CE10EE49FDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CD6EAC-29B1-0D4A-AE1B-47B4BDC467AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="29">
   <si>
     <t>cms</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>syst7_u</t>
-  </si>
-  <si>
-    <t>pt_max</t>
   </si>
 </sst>
 </file>
@@ -146,6 +143,7 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -462,98 +460,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="16" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="15" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="P1" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q1" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -575,67 +570,64 @@
       <c r="G2" s="1">
         <v>25</v>
       </c>
-      <c r="H2" s="1">
-        <v>59</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I2" s="1">
+        <v>2.1</v>
+      </c>
       <c r="J2" s="1">
-        <v>2.1</v>
+        <v>0.12</v>
       </c>
       <c r="K2" s="1">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="L2" s="1">
-        <v>0.11</v>
+        <f t="shared" ref="L2:L14" si="0">I2/100</f>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="M2" s="1">
-        <f t="shared" ref="M2:M14" si="0">J2/100</f>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="N2" s="1">
-        <f t="shared" ref="N2:N14" si="1">K2/100</f>
+        <f t="shared" ref="M2:M14" si="1">J2/100</f>
         <v>1.1999999999999999E-3</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="O2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P2">
+        <v>5.9999999999999988E-5</v>
+      </c>
       <c r="Q2">
-        <v>5.9999999999999988E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="R2">
-        <v>2.0000000000000002E-5</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="S2">
-        <v>2.0000000000000001E-4</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="T2">
-        <v>3.0000000000000001E-5</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="U2">
-        <v>4.0000000000000003E-5</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="V2">
-        <v>2.7999999999999998E-4</v>
+        <v>2.5999999999999998E-4</v>
       </c>
       <c r="W2">
-        <v>2.5999999999999998E-4</v>
+        <v>5.4000000000000001E-4</v>
       </c>
       <c r="X2">
-        <v>5.4000000000000001E-4</v>
+        <v>8.1999999999999998E-4</v>
       </c>
       <c r="Y2">
-        <v>8.1999999999999998E-4</v>
-      </c>
-      <c r="Z2">
         <v>1.08E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -657,67 +649,64 @@
       <c r="G3" s="1">
         <v>25</v>
       </c>
-      <c r="H3" s="1">
-        <v>59</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I3" s="1">
+        <v>5.23</v>
+      </c>
       <c r="J3" s="1">
-        <v>5.23</v>
+        <v>0.11</v>
       </c>
       <c r="K3" s="1">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="M3" s="1">
         <f t="shared" si="0"/>
         <v>5.2300000000000006E-2</v>
       </c>
-      <c r="N3" s="1">
+      <c r="M3" s="1">
         <f t="shared" si="1"/>
         <v>1.1000000000000001E-3</v>
       </c>
+      <c r="N3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="O3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P3">
+        <v>5.9999999999999988E-5</v>
+      </c>
       <c r="Q3">
-        <v>5.9999999999999988E-5</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="R3">
+        <v>1E-4</v>
+      </c>
+      <c r="S3">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="S3">
-        <v>1E-4</v>
-      </c>
       <c r="T3">
-        <v>1.8000000000000001E-4</v>
+        <v>2.5999999999999998E-4</v>
       </c>
       <c r="U3">
-        <v>2.5999999999999998E-4</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="V3">
-        <v>7.5000000000000002E-4</v>
+        <v>5.4000000000000001E-4</v>
       </c>
       <c r="W3">
-        <v>5.4000000000000001E-4</v>
+        <v>5.6000000000000006E-4</v>
       </c>
       <c r="X3">
-        <v>5.6000000000000006E-4</v>
+        <v>8.1000000000000006E-4</v>
       </c>
       <c r="Y3">
-        <v>8.1000000000000006E-4</v>
-      </c>
-      <c r="Z3">
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -739,67 +728,64 @@
       <c r="G4" s="1">
         <v>25</v>
       </c>
-      <c r="H4" s="1">
-        <v>59</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I4" s="1">
+        <v>9.16</v>
+      </c>
       <c r="J4" s="1">
-        <v>9.16</v>
+        <v>0.11</v>
       </c>
       <c r="K4" s="1">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="L4" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="M4" s="1">
         <f t="shared" si="0"/>
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="N4" s="1">
+      <c r="M4" s="1">
         <f t="shared" si="1"/>
         <v>1.1000000000000001E-3</v>
       </c>
+      <c r="N4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="O4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P4">
+        <v>1.2E-4</v>
+      </c>
       <c r="Q4">
-        <v>1.2E-4</v>
+        <v>2.4000000000000001E-4</v>
       </c>
       <c r="R4">
-        <v>2.4000000000000001E-4</v>
+        <v>2.7E-4</v>
       </c>
       <c r="S4">
-        <v>2.7E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="T4">
-        <v>2.5000000000000001E-4</v>
+        <v>3.5E-4</v>
       </c>
       <c r="U4">
-        <v>3.5E-4</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="V4">
-        <v>1.0499999999999999E-3</v>
+        <v>8.7000000000000001E-4</v>
       </c>
       <c r="W4">
-        <v>8.7000000000000001E-4</v>
+        <v>5.8999999999999992E-4</v>
       </c>
       <c r="X4">
-        <v>5.8999999999999992E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="Y4">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="Z4">
         <v>1.7899999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -821,67 +807,64 @@
       <c r="G5" s="1">
         <v>25</v>
       </c>
-      <c r="H5" s="1">
-        <v>59</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I5" s="1">
+        <v>11.97</v>
+      </c>
       <c r="J5" s="1">
-        <v>11.97</v>
+        <v>0.11</v>
       </c>
       <c r="K5" s="1">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="L5" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="M5" s="1">
         <f t="shared" si="0"/>
         <v>0.1197</v>
       </c>
-      <c r="N5" s="1">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>1.1000000000000001E-3</v>
       </c>
+      <c r="N5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="O5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P5">
+        <v>7.0000000000000007E-5</v>
+      </c>
       <c r="Q5">
-        <v>7.0000000000000007E-5</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="R5">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="S5">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="S5">
-        <v>4.0000000000000003E-5</v>
-      </c>
       <c r="T5">
-        <v>3.4000000000000002E-4</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="U5">
-        <v>4.8999999999999998E-4</v>
+        <v>1.32E-3</v>
       </c>
       <c r="V5">
-        <v>1.32E-3</v>
+        <v>1.81E-3</v>
       </c>
       <c r="W5">
-        <v>1.81E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="X5">
-        <v>5.9999999999999995E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="Y5">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="Z5">
         <v>2.5500000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -903,67 +886,64 @@
       <c r="G6" s="1">
         <v>25</v>
       </c>
-      <c r="H6" s="1">
-        <v>59</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I6" s="1">
+        <v>14.52</v>
+      </c>
       <c r="J6" s="1">
-        <v>14.52</v>
+        <v>0.12</v>
       </c>
       <c r="K6" s="1">
-        <v>0.12</v>
+        <v>0.32</v>
       </c>
       <c r="L6" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="M6" s="1">
         <f t="shared" si="0"/>
         <v>0.1452</v>
       </c>
-      <c r="N6" s="1">
+      <c r="M6" s="1">
         <f t="shared" si="1"/>
         <v>1.1999999999999999E-3</v>
       </c>
+      <c r="N6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="O6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P6">
+        <v>1.2E-4</v>
+      </c>
       <c r="Q6">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="R6">
         <v>1.2E-4</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="S6">
-        <v>1.2E-4</v>
-      </c>
       <c r="T6">
-        <v>3.6000000000000002E-4</v>
+        <v>5.2999999999999998E-4</v>
       </c>
       <c r="U6">
-        <v>5.2999999999999998E-4</v>
+        <v>1.72E-3</v>
       </c>
       <c r="V6">
-        <v>1.72E-3</v>
+        <v>2.3700000000000001E-3</v>
       </c>
       <c r="W6">
-        <v>2.3700000000000001E-3</v>
+        <v>7.6000000000000004E-4</v>
       </c>
       <c r="X6">
-        <v>7.6000000000000004E-4</v>
+        <v>8.4999999999999995E-4</v>
       </c>
       <c r="Y6">
-        <v>8.4999999999999995E-4</v>
-      </c>
-      <c r="Z6">
         <v>3.2299999999999998E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -985,67 +965,64 @@
       <c r="G7" s="1">
         <v>25</v>
       </c>
-      <c r="H7" s="1">
-        <v>59</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I7" s="1">
+        <v>15.59</v>
+      </c>
       <c r="J7" s="1">
-        <v>15.59</v>
+        <v>0.18</v>
       </c>
       <c r="K7" s="1">
-        <v>0.18</v>
+        <v>0.41</v>
       </c>
       <c r="L7" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="M7" s="1">
         <f t="shared" si="0"/>
         <v>0.15590000000000001</v>
       </c>
-      <c r="N7" s="1">
+      <c r="M7" s="1">
         <f t="shared" si="1"/>
         <v>1.8E-3</v>
       </c>
+      <c r="N7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="O7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P7">
+        <v>8.9999999999999992E-5</v>
+      </c>
       <c r="Q7">
-        <v>8.9999999999999992E-5</v>
+        <v>3.6999999999999999E-4</v>
       </c>
       <c r="R7">
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="S7">
         <v>3.6999999999999999E-4</v>
       </c>
-      <c r="S7">
-        <v>4.6999999999999999E-4</v>
-      </c>
       <c r="T7">
-        <v>3.6999999999999999E-4</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="U7">
-        <v>5.5000000000000003E-4</v>
+        <v>2.4199999999999998E-3</v>
       </c>
       <c r="V7">
-        <v>2.4199999999999998E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="W7">
-        <v>2.7100000000000002E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="X7">
-        <v>1.1999999999999999E-3</v>
+        <v>1.17E-3</v>
       </c>
       <c r="Y7">
-        <v>1.17E-3</v>
-      </c>
-      <c r="Z7">
         <v>4.0999999999999986E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1067,67 +1044,64 @@
       <c r="G8" s="1">
         <v>25</v>
       </c>
-      <c r="H8" s="1">
-        <v>59</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I8" s="1">
+        <v>15.37</v>
+      </c>
       <c r="J8" s="1">
-        <v>15.37</v>
+        <v>0.67</v>
       </c>
       <c r="K8" s="1">
-        <v>0.67</v>
+        <v>0.61</v>
       </c>
       <c r="L8" s="1">
-        <v>0.61</v>
-      </c>
-      <c r="M8" s="1">
         <f t="shared" si="0"/>
         <v>0.1537</v>
       </c>
-      <c r="N8" s="1">
+      <c r="M8" s="1">
         <f t="shared" si="1"/>
         <v>6.7000000000000002E-3</v>
       </c>
+      <c r="N8" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="O8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P8">
+        <v>3.0000000000000001E-5</v>
+      </c>
       <c r="Q8">
-        <v>3.0000000000000001E-5</v>
+        <v>4.2000000000000002E-4</v>
       </c>
       <c r="R8">
-        <v>4.2000000000000002E-4</v>
+        <v>6.4000000000000005E-4</v>
       </c>
       <c r="S8">
-        <v>6.4000000000000005E-4</v>
+        <v>3.8999999999999999E-4</v>
       </c>
       <c r="T8">
-        <v>3.8999999999999999E-4</v>
+        <v>5.8E-4</v>
       </c>
       <c r="U8">
-        <v>5.8E-4</v>
+        <v>4.0999999999999986E-3</v>
       </c>
       <c r="V8">
-        <v>4.0999999999999986E-3</v>
+        <v>3.9399999999999999E-3</v>
       </c>
       <c r="W8">
-        <v>3.9399999999999999E-3</v>
+        <v>1.67E-3</v>
       </c>
       <c r="X8">
-        <v>1.67E-3</v>
+        <v>1.0399999999999999E-3</v>
       </c>
       <c r="Y8">
-        <v>1.0399999999999999E-3</v>
-      </c>
-      <c r="Z8">
         <v>6.11E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1149,67 +1123,64 @@
       <c r="G9" s="1">
         <v>25</v>
       </c>
-      <c r="H9" s="1">
-        <v>59</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I9" s="1">
+        <v>11.05</v>
+      </c>
       <c r="J9" s="1">
-        <v>11.05</v>
+        <v>0.31</v>
       </c>
       <c r="K9" s="1">
-        <v>0.31</v>
+        <v>0.49</v>
       </c>
       <c r="L9" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="M9" s="1">
         <f t="shared" si="0"/>
         <v>0.1105</v>
       </c>
-      <c r="N9" s="1">
+      <c r="M9" s="1">
         <f t="shared" si="1"/>
         <v>3.0999999999999999E-3</v>
       </c>
+      <c r="N9" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="O9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P9">
+        <v>1.1E-4</v>
+      </c>
       <c r="Q9">
-        <v>1.1E-4</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="R9">
-        <v>2.7999999999999998E-4</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="S9">
-        <v>1.8000000000000001E-4</v>
+        <v>2.2000000000000001E-4</v>
       </c>
       <c r="T9">
-        <v>2.2000000000000001E-4</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="U9">
-        <v>3.4000000000000002E-4</v>
+        <v>4.2599999999999999E-3</v>
       </c>
       <c r="V9">
-        <v>4.2599999999999999E-3</v>
+        <v>1.3699999999999999E-3</v>
       </c>
       <c r="W9">
-        <v>1.3699999999999999E-3</v>
+        <v>1.5299999999999999E-3</v>
       </c>
       <c r="X9">
-        <v>1.5299999999999999E-3</v>
+        <v>9.5E-4</v>
       </c>
       <c r="Y9">
-        <v>9.5E-4</v>
-      </c>
-      <c r="Z9">
         <v>4.8499999999999993E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1231,67 +1202,64 @@
       <c r="G10" s="1">
         <v>25</v>
       </c>
-      <c r="H10" s="1">
-        <v>59</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I10" s="1">
+        <v>6.66</v>
+      </c>
       <c r="J10" s="1">
-        <v>6.66</v>
+        <v>1.19</v>
       </c>
       <c r="K10" s="1">
-        <v>1.19</v>
+        <v>0.53</v>
       </c>
       <c r="L10" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="M10" s="1">
         <f t="shared" si="0"/>
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="N10" s="1">
+      <c r="M10" s="1">
         <f t="shared" si="1"/>
         <v>1.1899999999999999E-2</v>
       </c>
+      <c r="N10" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="O10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P10">
+        <v>3.4000000000000002E-4</v>
+      </c>
       <c r="Q10">
-        <v>3.4000000000000002E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="R10">
-        <v>3.6000000000000002E-4</v>
+        <v>1.07E-3</v>
       </c>
       <c r="S10">
-        <v>1.07E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="T10">
-        <v>5.0000000000000002E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="U10">
-        <v>1E-4</v>
+        <v>4.2100000000000002E-3</v>
       </c>
       <c r="V10">
-        <v>4.2100000000000002E-3</v>
+        <v>1.4300000000000001E-3</v>
       </c>
       <c r="W10">
-        <v>1.4300000000000001E-3</v>
+        <v>2.4599999999999999E-3</v>
       </c>
       <c r="X10">
-        <v>2.4599999999999999E-3</v>
+        <v>1.1299999999999999E-3</v>
       </c>
       <c r="Y10">
-        <v>1.1299999999999999E-3</v>
-      </c>
-      <c r="Z10">
         <v>5.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1313,67 +1281,64 @@
       <c r="G11" s="1">
         <v>25</v>
       </c>
-      <c r="H11" s="1">
-        <v>59</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I11" s="1">
+        <v>-1.55</v>
+      </c>
       <c r="J11" s="1">
-        <v>-1.55</v>
+        <v>0.53</v>
       </c>
       <c r="K11" s="1">
-        <v>0.53</v>
+        <v>0.61</v>
       </c>
       <c r="L11" s="1">
-        <v>0.61</v>
-      </c>
-      <c r="M11" s="1">
         <f t="shared" si="0"/>
         <v>-1.55E-2</v>
       </c>
-      <c r="N11" s="1">
+      <c r="M11" s="1">
         <f t="shared" si="1"/>
         <v>5.3E-3</v>
       </c>
+      <c r="N11" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="O11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P11">
+        <v>3.6999999999999999E-4</v>
+      </c>
       <c r="Q11">
-        <v>3.6999999999999999E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="R11">
-        <v>3.6000000000000002E-4</v>
+        <v>1.3799999999999999E-3</v>
       </c>
       <c r="S11">
-        <v>1.3799999999999999E-3</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="T11">
-        <v>4.0000000000000003E-5</v>
+        <v>7.0000000000000007E-5</v>
       </c>
       <c r="U11">
-        <v>7.0000000000000007E-5</v>
+        <v>3.3300000000000001E-3</v>
       </c>
       <c r="V11">
-        <v>3.3300000000000001E-3</v>
+        <v>1.75E-3</v>
       </c>
       <c r="W11">
-        <v>1.75E-3</v>
+        <v>4.3699999999999998E-3</v>
       </c>
       <c r="X11">
-        <v>4.3699999999999998E-3</v>
+        <v>1.47E-3</v>
       </c>
       <c r="Y11">
-        <v>1.47E-3</v>
-      </c>
-      <c r="Z11">
         <v>6.1399999999999996E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1395,67 +1360,64 @@
       <c r="G12" s="1">
         <v>25</v>
       </c>
-      <c r="H12" s="1">
-        <v>59</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I12" s="1">
+        <v>-9.9700000000000006</v>
+      </c>
       <c r="J12" s="1">
-        <v>-9.9700000000000006</v>
+        <v>0.71</v>
       </c>
       <c r="K12" s="1">
-        <v>0.71</v>
+        <v>0.88</v>
       </c>
       <c r="L12" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="M12" s="1">
         <f t="shared" si="0"/>
         <v>-9.9700000000000011E-2</v>
       </c>
-      <c r="N12" s="1">
+      <c r="M12" s="1">
         <f t="shared" si="1"/>
         <v>7.0999999999999995E-3</v>
       </c>
+      <c r="N12" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="O12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P12" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P12">
+        <v>1.9000000000000001E-4</v>
+      </c>
       <c r="Q12">
-        <v>1.9000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="R12">
-        <v>2.9999999999999997E-4</v>
+        <v>2.7799999999999999E-3</v>
       </c>
       <c r="S12">
-        <v>2.7799999999999999E-3</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="T12">
-        <v>2.0000000000000002E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="U12">
-        <v>5.0000000000000002E-5</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="V12">
-        <v>3.3999999999999998E-3</v>
+        <v>1.5399999999999999E-3</v>
       </c>
       <c r="W12">
-        <v>1.5399999999999999E-3</v>
+        <v>7.1500000000000001E-3</v>
       </c>
       <c r="X12">
-        <v>7.1500000000000001E-3</v>
+        <v>1.9300000000000001E-3</v>
       </c>
       <c r="Y12">
-        <v>1.9300000000000001E-3</v>
-      </c>
-      <c r="Z12">
         <v>8.7600000000000004E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1477,67 +1439,64 @@
       <c r="G13" s="1">
         <v>25</v>
       </c>
-      <c r="H13" s="1">
-        <v>59</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I13" s="1">
+        <v>-19.100000000000001</v>
+      </c>
       <c r="J13" s="1">
-        <v>-19.100000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="K13" s="1">
-        <v>0.41</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L13" s="1">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="M13" s="1">
         <f t="shared" si="0"/>
         <v>-0.191</v>
       </c>
-      <c r="N13" s="1">
+      <c r="M13" s="1">
         <f t="shared" si="1"/>
         <v>4.0999999999999995E-3</v>
       </c>
+      <c r="N13" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="O13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P13">
+        <v>2.1000000000000001E-4</v>
+      </c>
       <c r="Q13">
-        <v>2.1000000000000001E-4</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="R13">
-        <v>4.2999999999999999E-4</v>
+        <v>5.5399999999999998E-3</v>
       </c>
       <c r="S13">
-        <v>5.5399999999999998E-3</v>
+        <v>2.9E-4</v>
       </c>
       <c r="T13">
-        <v>2.9E-4</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="U13">
-        <v>4.8000000000000001E-4</v>
+        <v>4.2399999999999998E-3</v>
       </c>
       <c r="V13">
-        <v>4.2399999999999998E-3</v>
+        <v>2.16E-3</v>
       </c>
       <c r="W13">
-        <v>2.16E-3</v>
+        <v>8.6499999999999997E-3</v>
       </c>
       <c r="X13">
-        <v>8.6499999999999997E-3</v>
+        <v>2.3600000000000001E-3</v>
       </c>
       <c r="Y13">
-        <v>2.3600000000000001E-3</v>
-      </c>
-      <c r="Z13">
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1559,68 +1518,65 @@
       <c r="G14" s="1">
         <v>25</v>
       </c>
-      <c r="H14" s="1">
-        <v>59</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I14" s="1">
+        <v>-39.97</v>
+      </c>
       <c r="J14" s="1">
-        <v>-39.97</v>
+        <v>0.93</v>
       </c>
       <c r="K14" s="1">
-        <v>0.93</v>
+        <v>2.23</v>
       </c>
       <c r="L14" s="1">
-        <v>2.23</v>
-      </c>
-      <c r="M14" s="1">
         <f t="shared" si="0"/>
         <v>-0.3997</v>
       </c>
-      <c r="N14" s="1">
+      <c r="M14" s="1">
         <f t="shared" si="1"/>
         <v>9.300000000000001E-3</v>
       </c>
+      <c r="N14" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="O14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P14" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P14">
+        <v>5.0000000000000002E-5</v>
+      </c>
       <c r="Q14">
-        <v>5.0000000000000002E-5</v>
+        <v>8.7000000000000001E-4</v>
       </c>
       <c r="R14">
-        <v>8.7000000000000001E-4</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="S14">
-        <v>8.9999999999999993E-3</v>
+        <v>8.1000000000000006E-4</v>
       </c>
       <c r="T14">
-        <v>8.1000000000000006E-4</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="U14">
-        <v>1.2999999999999999E-3</v>
+        <v>3.48E-3</v>
       </c>
       <c r="V14">
-        <v>3.48E-3</v>
+        <v>3.9899999999999996E-3</v>
       </c>
       <c r="W14">
-        <v>3.9899999999999996E-3</v>
+        <v>1.89E-2</v>
       </c>
       <c r="X14">
-        <v>1.89E-2</v>
+        <v>5.4799999999999996E-3</v>
       </c>
       <c r="Y14">
-        <v>5.4799999999999996E-3</v>
-      </c>
-      <c r="Z14">
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="23" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N23" s="2"/>
+    <row r="23" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
